--- a/pred_ohlcv/54_21/2019-10-30 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 LBA ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>-869077.8953148102</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-930981.7626148103</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-957406.5614148102</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1051431.56901481</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1255667.45631481</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1255667.45631481</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1247910.63821481</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1247910.63821481</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1255410.63821481</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1255410.63821481</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1324987.46821481</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1324987.46821481</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1291841.60781481</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1342174.54471481</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1289584.54471481</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1289584.54471481</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1757683.56011481</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1718063.72681481</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1404902.15541481</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1425230.42201481</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1443730.89041481</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1390383.40991481</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1613031.72091481</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1596754.42441481</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1677234.98151481</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2071007.44171481</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2189982.01771481</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-4743176.097867442</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-4783047.552467442</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-4708459.405367442</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-4720853.609567442</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-4713543.620067442</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-4901930.282467442</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-4900848.282567441</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-4409798.85276744</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4542615.28436744</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-4255078.68756744</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-4189675.751867439</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-4195944.824867439</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-4089362.58866744</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-4114054.48466744</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-4118118.22196744</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-4099486.29906744</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-4099486.29906744</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3999886.29906744</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3999749.53936744</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-4109268.13556744</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-4110979.13556744</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-4158066.07326744</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-4157643.00946744</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-4148361.53746744</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 LBA ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-600453.6714148102</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-869077.8953148102</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-930981.7626148103</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1051431.56901481</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1008705.23011481</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1255667.45631481</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1255667.45631481</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1247910.63821481</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1247910.63821481</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1255410.63821481</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1255410.63821481</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1324987.46821481</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1324987.46821481</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1414840.45181481</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1338930.40881481</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1342174.54471481</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1289584.54471481</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1718063.72681481</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1425230.42201481</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1443730.89041481</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1390383.40991481</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1613031.72091481</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1596754.42441481</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1677234.98151481</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2071007.44171481</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2189982.01771481</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1983767.94501481</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2000951.67711481</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1643941.97421481</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1676473.459214811</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2754094.581267442</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-4743176.097867442</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-4783047.552467442</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-4732831.081267443</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-4716598.081267443</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-4716598.081267443</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-4716598.081267443</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-4696936.081267443</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-4708459.405367442</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-4720853.609567442</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-4713543.620067442</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4751681.071967442</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-4901930.282467442</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-4900848.282567441</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-4206711.95466744</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-4089362.58866744</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3911753.10386744</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-4158066.07326744</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-4125552.40856744</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
